--- a/figures_tables/antiPEG/antipeg_pvals.xlsx
+++ b/figures_tables/antiPEG/antipeg_pvals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,6 +370,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Fold change</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Adjusted P-value</t>
         </is>
       </c>
@@ -386,6 +391,9 @@
         </is>
       </c>
       <c r="C2">
+        <v>1.165</v>
+      </c>
+      <c r="D2">
         <v>0.9135040923090337</v>
       </c>
     </row>
@@ -401,6 +409,9 @@
         </is>
       </c>
       <c r="C3">
+        <v>1.31</v>
+      </c>
+      <c r="D3">
         <v>0.6354669508763662</v>
       </c>
     </row>
@@ -416,6 +427,9 @@
         </is>
       </c>
       <c r="C4">
+        <v>1.251</v>
+      </c>
+      <c r="D4">
         <v>0.7787635673630147</v>
       </c>
     </row>
@@ -431,6 +445,9 @@
         </is>
       </c>
       <c r="C5">
+        <v>1.641</v>
+      </c>
+      <c r="D5">
         <v>0.1328086421305291</v>
       </c>
     </row>
@@ -446,6 +463,9 @@
         </is>
       </c>
       <c r="C6">
+        <v>2.098</v>
+      </c>
+      <c r="D6">
         <v>0.01161374082680378</v>
       </c>
     </row>
@@ -461,6 +481,9 @@
         </is>
       </c>
       <c r="C7">
+        <v>4.234</v>
+      </c>
+      <c r="D7">
         <v>9.980366729611667e-06</v>
       </c>
     </row>
@@ -476,6 +499,9 @@
         </is>
       </c>
       <c r="C8">
+        <v>1.186</v>
+      </c>
+      <c r="D8">
         <v>0.8813616735255702</v>
       </c>
     </row>
@@ -491,6 +517,9 @@
         </is>
       </c>
       <c r="C9">
+        <v>1.204</v>
+      </c>
+      <c r="D9">
         <v>0.7793401488775975</v>
       </c>
     </row>
@@ -506,6 +535,9 @@
         </is>
       </c>
       <c r="C10">
+        <v>1.298</v>
+      </c>
+      <c r="D10">
         <v>0.5313477729167932</v>
       </c>
     </row>
@@ -521,6 +553,9 @@
         </is>
       </c>
       <c r="C11">
+        <v>1.228</v>
+      </c>
+      <c r="D11">
         <v>0.7433127694285921</v>
       </c>
     </row>
@@ -536,6 +571,9 @@
         </is>
       </c>
       <c r="C12">
+        <v>1.762</v>
+      </c>
+      <c r="D12">
         <v>0.01798513755801312</v>
       </c>
     </row>
@@ -551,6 +589,9 @@
         </is>
       </c>
       <c r="C13">
+        <v>2.074</v>
+      </c>
+      <c r="D13">
         <v>0.001349712644285184</v>
       </c>
     </row>
@@ -566,6 +607,9 @@
         </is>
       </c>
       <c r="C14">
+        <v>3.378</v>
+      </c>
+      <c r="D14">
         <v>3.19646590529743e-07</v>
       </c>
     </row>
@@ -581,6 +625,9 @@
         </is>
       </c>
       <c r="C15">
+        <v>1.184</v>
+      </c>
+      <c r="D15">
         <v>0.8287786284977652</v>
       </c>
     </row>
